--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akifislam/PycharmProjects/RuhulBhai Certificate Generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akifislam/Desktop/Excel-to-CertificateGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EC063B-3499-224F-990E-3D15D6E4B085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97F6C45-84C7-3240-9B2D-4DF75CB84210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sumaiyaakter.ru@gmail.com </t>
   </si>
   <si>
     <t xml:space="preserve">iamakifislam@gmail.com </t>
@@ -487,7 +484,7 @@
   <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -514,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -523,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -531,15 +528,15 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -547,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -555,23 +552,23 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
@@ -579,14 +576,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{7C627EF5-5559-1049-9749-FFEF637EC370}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{B8ADE265-EC89-DA4F-B5CC-AC1A17D92E15}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{24E16EA6-9E44-B348-BB25-88B7A5E2BD8C}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{F328A61C-C83C-D945-BDD0-128A682DCD0C}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{24E16EA6-9E44-B348-BB25-88B7A5E2BD8C}"/>
+    <hyperlink ref="B2" r:id="rId2" display="s1912287121@ru.ac.bd" xr:uid="{9DB44FA8-810C-1944-B163-8F8769B982AB}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{F328A61C-C83C-D945-BDD0-128A682DCD0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
